--- a/Paper 2/Data/DataTable.xlsx
+++ b/Paper 2/Data/DataTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Paper 3\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Paper 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>Experimentation 1</t>
   </si>
@@ -125,15 +125,6 @@
     <t>A hybrid ANFIS model based on empirical mode decomposition forstock time series forecasting</t>
   </si>
   <si>
-    <t>12/06/2001-01/17/2002 (31)</t>
-  </si>
-  <si>
-    <t>NIKKEI 225</t>
-  </si>
-  <si>
-    <t>SSEI</t>
-  </si>
-  <si>
     <t>11/16/1999-12/31/1999 (31)</t>
   </si>
   <si>
@@ -149,19 +140,7 @@
     <t>01/05/2000~10/31/2000 (204)</t>
   </si>
   <si>
-    <t>01/07/2000~10/31/2000 (204)</t>
-  </si>
-  <si>
     <t>11/19/1999-01/04/2000 (31)</t>
-  </si>
-  <si>
-    <t>11/18/1999-01/06/2000 (31)</t>
-  </si>
-  <si>
-    <t>11/01/2000~12/28/2000 (42)</t>
-  </si>
-  <si>
-    <t>01/20/2000~10/31/2000 (204)</t>
   </si>
 </sst>
 </file>
@@ -492,7 +471,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -620,13 +599,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -640,51 +619,25 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
